--- a/result/reg/2024_solo_30s_ratio.xlsx
+++ b/result/reg/2024_solo_30s_ratio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,11 +473,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>지가</t>
+          <t>한식음식점</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.153</v>
+        <v>-0.398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.188</v>
+        <v>-0.434</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-0.151</v>
+        <v>-0.355</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -504,27 +504,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>대학교</t>
+          <t>제과점</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.074</v>
+        <v>-0.283</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.073</v>
+        <v>-0.31</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-0.08</v>
+        <v>-0.305</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -535,11 +535,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>양식음식점</t>
+          <t>치킨전문점</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.083</v>
+        <v>-0.202</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -547,11 +547,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.225</v>
+        <v>-0.186</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -560,11 +560,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>사업체수</t>
+          <t>지가</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.41</v>
+        <v>-0.157</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.273</v>
+        <v>-0.168</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.25</v>
+        <v>-0.178</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -591,102 +591,102 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>지가변동률</t>
+          <t>대학교</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.301</v>
+        <v>-0.058</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.351</v>
+        <v>-0.063</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>한식음식점</t>
+          <t>분식전문점</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.282</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>-0.312</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+      <c r="D7" t="n">
+        <v>-0.035</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>일식음식점</t>
+          <t>호프-간이주점</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.337</v>
+        <v>0.125</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>0.459</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>치킨전문점</t>
+          <t>양식음식점</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.247</v>
+        <v>0.159</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="F9" t="n">
-        <v>-0.228</v>
+        <v>0.143</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -697,21 +697,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>제과점</t>
+          <t>네일숍</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.179</v>
+        <v>0.353</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="F10" t="n">
-        <v>-0.222</v>
+        <v>0.322</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -722,46 +728,52 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>호프-간이주점</t>
+          <t>편의점</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.16</v>
+        <v>0.37</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+      <c r="D11" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>편의점</t>
+          <t>사업체수</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.446</v>
+        <v>0.448</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="F12" t="n">
-        <v>0.362</v>
+        <v>0.316</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -772,49 +784,73 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>네일숍</t>
+          <t>일식음식점</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.116</v>
+        <v>0.295</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>미용실</t>
+          <t>지가변동률</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.178</v>
+        <v>0.34</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>애완동물</t>
+          <t>미용실</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.097</v>
+        <v>-0.242</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -829,11 +865,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>분식전문점</t>
+          <t>애완동물</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.066</v>
+        <v>-0.023</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -852,7 +888,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.064</v>
+        <v>0.038</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -871,7 +907,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.027</v>
+        <v>-0.023</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -890,7 +926,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.062</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -909,7 +945,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.067</v>
+        <v>0.068</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -928,11 +964,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.061</v>
+        <v>-0.137</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -947,7 +983,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.049</v>
+        <v>-0.018</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -966,11 +1002,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.218</v>
+        <v>-0.171</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -985,7 +1021,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.042</v>
+        <v>-0.05</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -997,25 +1033,6 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>월평균소득</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
